--- a/buildstuff/FontMetrics.xlsx
+++ b/buildstuff/FontMetrics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\wallpaper_engine\projects\myprojects\modernactivedesk\buildstuff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD71815-4A63-4269-9BCF-EF7C966E6696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC8D8A04-2B89-43C6-B933-9F3F16F010EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34092" yWindow="3492" windowWidth="25176" windowHeight="13800" xr2:uid="{6CF0947A-E62A-45F6-A7B7-E20A712336DC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18972" xr2:uid="{6CF0947A-E62A-45F6-A7B7-E20A712336DC}"/>
   </bookViews>
   <sheets>
     <sheet name="FontMetrics" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="157">
   <si>
     <t>MenuFont</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -209,10 +209,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Trebuchet MS 10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Times New Roman 11 Bold</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -569,6 +565,97 @@
   </si>
   <si>
     <t>Missing Themes</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Done</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trebuchet MS 10 Bold</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>System</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Small Fonts</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Done with Fixedsys Excelsior</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Done with Pixelated MS Sans Serif</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arial 12 Bold</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arial 10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lilac (98)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bitmap Fonts</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Storm (98)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arial 8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arial 8 Bold</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brick (98)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arial 9 Bold</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>All HC (98)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not gonna do</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Done with Yu Gothic</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lol</t>
+  </si>
+  <si>
+    <t>Done with OCR A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Done with Arial</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Done with Tempus Sans ITC</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -576,7 +663,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -600,8 +687,33 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -613,8 +725,18 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -622,26 +744,62 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
     <cellStyle name="나쁨" xfId="1" builtinId="27"/>
+    <cellStyle name="메모" xfId="3" builtinId="10"/>
+    <cellStyle name="보통" xfId="2" builtinId="28"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="4" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -953,11 +1111,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CBBFC00-B60D-47A1-AA74-47351EB23532}">
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:L62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -968,14 +1126,15 @@
     <col min="4" max="4" width="28.09765625" customWidth="1"/>
     <col min="5" max="5" width="31.3984375" customWidth="1"/>
     <col min="6" max="6" width="27" customWidth="1"/>
-    <col min="7" max="7" width="15.59765625" customWidth="1"/>
-    <col min="8" max="8" width="15.19921875" customWidth="1"/>
-    <col min="9" max="9" width="11.69921875" customWidth="1"/>
+    <col min="7" max="7" width="30.19921875" customWidth="1"/>
+    <col min="8" max="8" width="14.59765625" customWidth="1"/>
+    <col min="9" max="9" width="14.796875" customWidth="1"/>
     <col min="10" max="10" width="11.796875" customWidth="1"/>
-    <col min="11" max="11" width="17.09765625" customWidth="1"/>
+    <col min="11" max="11" width="11.59765625" customWidth="1"/>
+    <col min="12" max="12" width="16.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -992,7 +1151,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1011,828 +1170,1065 @@
       <c r="F2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+      <c r="G2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+      <c r="E5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
         <v>44</v>
       </c>
-      <c r="C5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F6" t="s">
         <v>45</v>
       </c>
-      <c r="F5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+      <c r="G6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
         <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>12</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>149</v>
+      </c>
+      <c r="F11" t="s">
+        <v>150</v>
+      </c>
+      <c r="G11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D13" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" t="s">
+        <v>109</v>
+      </c>
+      <c r="G13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
+      <c r="G15" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="E13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
+      <c r="E16" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
         <v>19</v>
       </c>
-      <c r="B14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" t="s">
-        <v>61</v>
-      </c>
-      <c r="E14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>92</v>
-      </c>
-      <c r="B15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>93</v>
-      </c>
-      <c r="B16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>94</v>
-      </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E17" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" t="s">
+        <v>42</v>
+      </c>
+      <c r="G20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G22" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" t="s">
         <v>55</v>
       </c>
-      <c r="E18" t="s">
+      <c r="C23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" t="s">
+        <v>71</v>
+      </c>
+      <c r="G23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" t="s">
+        <v>152</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" t="s">
+        <v>77</v>
+      </c>
+      <c r="G25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26" t="s">
+        <v>80</v>
+      </c>
+      <c r="G26" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" t="s">
+        <v>84</v>
+      </c>
+      <c r="G27" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>95</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>96</v>
-      </c>
-      <c r="B20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="C28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" t="s">
+        <v>87</v>
+      </c>
+      <c r="F28" t="s">
+        <v>86</v>
+      </c>
+      <c r="G28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" t="s">
+        <v>90</v>
+      </c>
+      <c r="G29" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" t="s">
+        <v>105</v>
+      </c>
+      <c r="E30" t="s">
+        <v>106</v>
+      </c>
+      <c r="F30" t="s">
+        <v>105</v>
+      </c>
+      <c r="G30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E20" t="s">
-        <v>77</v>
-      </c>
-      <c r="F20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>97</v>
-      </c>
-      <c r="B21" s="1" t="s">
+      <c r="C31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>98</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="G31" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" t="s">
         <v>57</v>
       </c>
-      <c r="C22" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>99</v>
-      </c>
-      <c r="B23" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" t="s">
-        <v>81</v>
-      </c>
-      <c r="E23" t="s">
-        <v>82</v>
-      </c>
-      <c r="F23" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>100</v>
-      </c>
-      <c r="B24" s="1" t="s">
+      <c r="C32" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" t="s">
+        <v>49</v>
+      </c>
+      <c r="F32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" t="s">
+        <v>84</v>
+      </c>
+      <c r="G33" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" t="s">
+        <v>45</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>44</v>
+      </c>
+      <c r="G34" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="G35" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" t="s">
+        <v>84</v>
+      </c>
+      <c r="G36" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" t="s">
+        <v>84</v>
+      </c>
+      <c r="G37" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A38" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>144</v>
+      </c>
+      <c r="B39" t="s">
+        <v>146</v>
+      </c>
+      <c r="C39" t="s">
+        <v>145</v>
+      </c>
+      <c r="D39" t="s">
+        <v>145</v>
+      </c>
+      <c r="E39" t="s">
+        <v>145</v>
+      </c>
+      <c r="F39" t="s">
+        <v>145</v>
+      </c>
+      <c r="G39" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" t="s">
+        <v>84</v>
+      </c>
+      <c r="G40" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" t="s">
+        <v>84</v>
+      </c>
+      <c r="G41" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G42" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G43" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G44" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" t="s">
+        <v>38</v>
+      </c>
+      <c r="E45" t="s">
+        <v>38</v>
+      </c>
+      <c r="F45" t="s">
+        <v>38</v>
+      </c>
+      <c r="G45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" t="s">
+        <v>39</v>
+      </c>
+      <c r="D46" t="s">
+        <v>39</v>
+      </c>
+      <c r="E46" t="s">
+        <v>41</v>
+      </c>
+      <c r="F46" t="s">
+        <v>39</v>
+      </c>
+      <c r="G46" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>35</v>
+      </c>
+      <c r="E47" t="s">
+        <v>42</v>
+      </c>
+      <c r="G47" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>36</v>
+      </c>
+      <c r="B48" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" t="s">
+        <v>39</v>
+      </c>
+      <c r="D48" t="s">
+        <v>39</v>
+      </c>
+      <c r="E48" t="s">
+        <v>41</v>
+      </c>
+      <c r="F48" t="s">
+        <v>39</v>
+      </c>
+      <c r="G48" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" t="s">
+        <v>135</v>
+      </c>
+      <c r="C49" t="s">
+        <v>39</v>
+      </c>
+      <c r="D49" t="s">
+        <v>39</v>
+      </c>
+      <c r="E49" t="s">
+        <v>41</v>
+      </c>
+      <c r="F49" t="s">
+        <v>39</v>
+      </c>
+      <c r="G49" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>133</v>
+      </c>
+      <c r="H51" t="s">
+        <v>114</v>
+      </c>
+      <c r="I51" t="s">
+        <v>117</v>
+      </c>
+      <c r="J51" t="s">
+        <v>115</v>
+      </c>
+      <c r="K51" t="s">
+        <v>116</v>
+      </c>
+      <c r="L51" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" t="s">
+        <v>109</v>
+      </c>
+      <c r="D52" t="s">
+        <v>109</v>
+      </c>
+      <c r="E52" t="s">
+        <v>109</v>
+      </c>
+      <c r="F52" t="s">
+        <v>108</v>
+      </c>
+      <c r="G52" t="s">
+        <v>134</v>
+      </c>
+      <c r="H52">
+        <v>-2</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>18</v>
+      </c>
+      <c r="K52">
+        <v>13</v>
+      </c>
+      <c r="L52">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>110</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" t="s">
+        <v>113</v>
+      </c>
+      <c r="D53" t="s">
+        <v>112</v>
+      </c>
+      <c r="E53" t="s">
+        <v>84</v>
+      </c>
+      <c r="F53" t="s">
+        <v>7</v>
+      </c>
+      <c r="G53" t="s">
+        <v>156</v>
+      </c>
+      <c r="H53">
+        <v>2</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>18</v>
+      </c>
+      <c r="K53">
+        <v>13</v>
+      </c>
+      <c r="L53">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>119</v>
+      </c>
+      <c r="B54" t="s">
+        <v>120</v>
+      </c>
+      <c r="C54" t="s">
+        <v>121</v>
+      </c>
+      <c r="E54" t="s">
+        <v>122</v>
+      </c>
+      <c r="F54" t="s">
+        <v>123</v>
+      </c>
+      <c r="G54" t="s">
+        <v>134</v>
+      </c>
+      <c r="H54">
+        <v>-2</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>18</v>
+      </c>
+      <c r="K54">
+        <v>16</v>
+      </c>
+      <c r="L54">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>124</v>
+      </c>
+      <c r="B55" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" t="s">
         <v>83</v>
       </c>
-      <c r="C24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" t="s">
-        <v>84</v>
-      </c>
-      <c r="E24" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>101</v>
-      </c>
-      <c r="B25" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" t="s">
-        <v>88</v>
-      </c>
-      <c r="D25" t="s">
-        <v>89</v>
-      </c>
-      <c r="E25" t="s">
-        <v>88</v>
-      </c>
-      <c r="F25" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>102</v>
-      </c>
-      <c r="B26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>103</v>
-      </c>
-      <c r="B27" t="s">
-        <v>105</v>
-      </c>
-      <c r="C27" t="s">
-        <v>106</v>
-      </c>
-      <c r="E27" t="s">
-        <v>107</v>
-      </c>
-      <c r="F27" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
-        <v>104</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" t="s">
-        <v>66</v>
-      </c>
-      <c r="E29" t="s">
-        <v>50</v>
-      </c>
-      <c r="F29" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="G55" t="s">
+        <v>134</v>
+      </c>
+      <c r="H55">
+        <v>-2</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>18</v>
+      </c>
+      <c r="K55">
+        <v>13</v>
+      </c>
+      <c r="L55">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>125</v>
+      </c>
+      <c r="B56" t="s">
+        <v>127</v>
+      </c>
+      <c r="C56" t="s">
+        <v>126</v>
+      </c>
+      <c r="D56" t="s">
+        <v>126</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" t="s">
-        <v>46</v>
-      </c>
-      <c r="D31" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" t="s">
-        <v>59</v>
-      </c>
-      <c r="E32" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="E33" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" t="s">
-        <v>60</v>
-      </c>
-      <c r="E34" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>27</v>
-      </c>
-      <c r="B35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" t="s">
-        <v>39</v>
-      </c>
-      <c r="E35" t="s">
-        <v>85</v>
-      </c>
-      <c r="F35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
-        <v>28</v>
-      </c>
-      <c r="E36" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
-        <v>29</v>
-      </c>
-      <c r="E37" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
-        <v>30</v>
-      </c>
-      <c r="B38" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" t="s">
-        <v>37</v>
-      </c>
-      <c r="D38" t="s">
-        <v>37</v>
-      </c>
-      <c r="E38" t="s">
-        <v>37</v>
-      </c>
-      <c r="F38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
-        <v>31</v>
-      </c>
-      <c r="B39" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" t="s">
-        <v>37</v>
-      </c>
-      <c r="D39" t="s">
-        <v>37</v>
-      </c>
-      <c r="E39" t="s">
-        <v>37</v>
-      </c>
-      <c r="F39" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B40" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40" t="s">
-        <v>37</v>
-      </c>
-      <c r="D40" t="s">
-        <v>37</v>
-      </c>
-      <c r="E40" t="s">
-        <v>37</v>
-      </c>
-      <c r="F40" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
-        <v>33</v>
-      </c>
-      <c r="B41" t="s">
-        <v>38</v>
-      </c>
-      <c r="C41" t="s">
-        <v>38</v>
-      </c>
-      <c r="D41" t="s">
-        <v>38</v>
-      </c>
-      <c r="E41" t="s">
-        <v>38</v>
-      </c>
-      <c r="F41" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
-        <v>34</v>
-      </c>
-      <c r="B42" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" t="s">
-        <v>39</v>
-      </c>
-      <c r="D42" t="s">
-        <v>39</v>
-      </c>
-      <c r="E42" t="s">
-        <v>41</v>
-      </c>
-      <c r="F42" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A43" t="s">
-        <v>35</v>
-      </c>
-      <c r="E43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A44" t="s">
-        <v>36</v>
-      </c>
-      <c r="B44" t="s">
-        <v>41</v>
-      </c>
-      <c r="C44" t="s">
-        <v>39</v>
-      </c>
-      <c r="D44" t="s">
-        <v>39</v>
-      </c>
-      <c r="E44" t="s">
-        <v>41</v>
-      </c>
-      <c r="F44" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
-        <v>67</v>
-      </c>
-      <c r="B45" t="s">
-        <v>43</v>
-      </c>
-      <c r="C45" t="s">
-        <v>39</v>
-      </c>
-      <c r="D45" t="s">
-        <v>39</v>
-      </c>
-      <c r="E45" t="s">
-        <v>41</v>
-      </c>
-      <c r="F45" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A47" t="s">
-        <v>134</v>
-      </c>
-      <c r="G47" t="s">
-        <v>115</v>
-      </c>
-      <c r="H47" t="s">
-        <v>118</v>
-      </c>
-      <c r="I47" t="s">
-        <v>116</v>
-      </c>
-      <c r="J47" t="s">
-        <v>117</v>
-      </c>
-      <c r="K47" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
-        <v>108</v>
-      </c>
-      <c r="B48" t="s">
-        <v>109</v>
-      </c>
-      <c r="C48" t="s">
-        <v>110</v>
-      </c>
-      <c r="D48" t="s">
-        <v>110</v>
-      </c>
-      <c r="E48" t="s">
-        <v>110</v>
-      </c>
-      <c r="F48" t="s">
-        <v>109</v>
-      </c>
-      <c r="G48">
-        <v>-2</v>
-      </c>
-      <c r="H48">
+      <c r="G56" t="s">
+        <v>134</v>
+      </c>
+      <c r="H56">
+        <v>3</v>
+      </c>
+      <c r="I56">
         <v>1</v>
       </c>
-      <c r="I48">
+      <c r="J56">
         <v>18</v>
       </c>
-      <c r="J48">
-        <v>13</v>
-      </c>
-      <c r="K48">
+      <c r="K56">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A49" t="s">
-        <v>111</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C49" t="s">
-        <v>114</v>
-      </c>
-      <c r="D49" t="s">
-        <v>113</v>
-      </c>
-      <c r="E49" t="s">
-        <v>85</v>
-      </c>
-      <c r="F49" t="s">
-        <v>7</v>
-      </c>
-      <c r="G49">
-        <v>2</v>
-      </c>
-      <c r="H49">
-        <v>1</v>
-      </c>
-      <c r="I49">
-        <v>18</v>
-      </c>
-      <c r="J49">
-        <v>13</v>
-      </c>
-      <c r="K49">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A50" t="s">
-        <v>120</v>
-      </c>
-      <c r="B50" t="s">
-        <v>121</v>
-      </c>
-      <c r="C50" t="s">
-        <v>122</v>
-      </c>
-      <c r="E50" t="s">
-        <v>123</v>
-      </c>
-      <c r="F50" t="s">
-        <v>124</v>
-      </c>
-      <c r="G50">
-        <v>-2</v>
-      </c>
-      <c r="H50">
-        <v>1</v>
-      </c>
-      <c r="I50">
-        <v>18</v>
-      </c>
-      <c r="J50">
-        <v>16</v>
-      </c>
-      <c r="K50">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A51" t="s">
-        <v>125</v>
-      </c>
-      <c r="B51" t="s">
-        <v>61</v>
-      </c>
-      <c r="C51" t="s">
-        <v>84</v>
-      </c>
-      <c r="G51">
-        <v>-2</v>
-      </c>
-      <c r="H51">
-        <v>1</v>
-      </c>
-      <c r="I51">
-        <v>18</v>
-      </c>
-      <c r="J51">
-        <v>13</v>
-      </c>
-      <c r="K51">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A52" t="s">
-        <v>126</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="L56">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A58" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C52" t="s">
-        <v>127</v>
-      </c>
-      <c r="D52" t="s">
-        <v>127</v>
-      </c>
-      <c r="E52" t="s">
-        <v>45</v>
-      </c>
-      <c r="F52" t="s">
-        <v>46</v>
-      </c>
-      <c r="G52">
-        <v>3</v>
-      </c>
-      <c r="H52">
-        <v>1</v>
-      </c>
-      <c r="I52">
-        <v>18</v>
-      </c>
-      <c r="J52">
-        <v>16</v>
-      </c>
-      <c r="K52">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A54" t="s">
+      <c r="B58" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A59" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A55" t="s">
+      <c r="B59" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A60" s="1" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A56" t="s">
+      <c r="B60" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A61" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A57" t="s">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A62" s="1" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A58" t="s">
-        <v>133</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H24" r:id="rId1" location="Similar_designs" xr:uid="{BA7244E2-D966-4763-953F-72BC6A8712C4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>